--- a/Articulo Estado Arte/Malla Analisis Papers.xlsx
+++ b/Articulo Estado Arte/Malla Analisis Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\Articulo Estado Arte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF77E15-7615-4F6D-9C28-CCDEEDCAF31E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23683C67-84DD-4071-87C9-B7E7AD5043E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{97F21C58-349C-4EBA-9621-5722AD736A3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t>Trabajo</t>
   </si>
@@ -264,6 +264,41 @@
     <t xml:space="preserve">Alessandro Vacca  and Italo Meloni (2013) Understanding route switch behavior: an analysis using GPS based
 data
 </t>
+  </si>
+  <si>
+    <t>..\..\..\..\Dropbox\Doctorado\Tesis Doctorado\ULTIMAS TAREAS\Articulos Borrador Articulo Revista\Tawfik, Rakha, Miller - 2010 - Driver route choice behavior Experiences, perceptions, and choices.pdf</t>
+  </si>
+  <si>
+    <t>la investigación presentada en este documento monitorea y analiza el comportamiento real de elección de ruta humana. Compara las experiencias, las percepciones y las elecciones reales de los conductores, y demuestra que (a) las percepciones de los conductores son significativamente diferentes de sus experiencias reales, y que las elecciones de los conductores se explican mejor por sus percepciones que por sus experiencias; (b) los conductores perciben las velocidades de viaje mejor que los tiempos de viaje (c) las velocidades de viaje percibidas parecen influir en la elección de ruta más que los tiempos de viaje percibidos, y (d) el comportamiento de elección de ruta de los conductores difiere entre los diferentes grupos de conductores.</t>
+  </si>
+  <si>
+    <t>A diferencia de la mayoría de las investigaciones de elección de ruta que se basan en suposiciones de comportamiento racional y se centran principalmente en el producto final de la elección de ruta, esta investigación intenta investigar la validez de estas suposiciones. Adicionalmente explora la precisión de las percepciones de los conductores y examina los motivos de la elección de ruta en función de las percepciones de los conductores las cuales se comparan con sus elecciones. En un intento de sopesar la fidelidad de las percepciones de los conductores, este trabajo también captura las experiencias reales de los conductores y las cruza o correlaciona con sus percepciones.
+Los objetivos de este estudio son demostrar que:
+(a) las percepciones de los conductores pueden ser significativamente diferentes de sus experiencias reales, y las elecciones de los conductores se explican mejor por sus percepciones que por sus experiencias;
+(b) los conductores pueden percibir las velocidades de viaje mejor que los tiempos de viaje
+(c) las velocidades de viaje percibidas parecen influir en la elección de ruta más que los tiempos de viaje percibidos, y
+  (d) el comportamiento de elección de ruta de los conductores difiere entre los diferentes grupos de conductores.</t>
+  </si>
+  <si>
+    <t>el experimento se realizó utilizando el software simulador de controlador STISIM desarrollado por Systems Technology Inc. (STI). STISIM Drive es un programa interactivo que es capaz de grabar numerosas medidas de rendimiento. El programa ofrece al investigador control sobre el desarrollo de escenarios de conducción, asegurando que todos los participantes se encuentren con los mismos eventos y condiciones mientras conducen. También ofrece al investigador una posible aleatorización parcial en el escenario y los eventos simulados. La investigación utilizó una red compuesta por dos rutas geométricamente idénticas con rutas casi idénticas (pero sesgadas estadísticamente), con tiempos de viaje promedio de 3 a 4 minutos con una velocidad promedio de aproximadamente 56 a 40 km / h (35 a 25 mph),
+El programa de conducción simulada funciona en una estructura similar al vehículo con un monitor de 48 cm (19 pulg.). La estructura similar al vehículo está equipada con una silla del vehículo, un volante y pedales de aceleración y freno.
+La investigación involucró a un total de cincuenta participantes. Se solicito llenar un cuestionario inicial antes de realizar las tareas de conducción el cual recolectó información sobre su edad, género, etnia, educación, problemas de visión, años de manejo y el número promedio de millas recorridas por año, despues de la actividad en el simulados se solicito a los participantes que rellenaran un breve cuestionarioel cual  fue diseñado para capturar la cognición de los participantes de las diferentes secciones de este estudio. El cuestionario recolectó información sobre sus percepciones de las diferencias en las características del viaje.</t>
+  </si>
+  <si>
+    <t>Ningun aporte</t>
+  </si>
+  <si>
+    <t>Se hizo fue un analisis estadistico sobre las actividades realizadas por los conductores y sobre las encuestas que cada uno al inicio y al final de la actividad entrego….</t>
+  </si>
+  <si>
+    <t>No usaron datos reales, solo datos y actividades sobre la conduccion que se realizaban el el simulador</t>
+  </si>
+  <si>
+    <t>No es claro</t>
+  </si>
+  <si>
+    <t>Tawfik, . Rakha and  Miller (2010) Driver Route Choice Behavior: Experiences, Perceptions, and
+Choices</t>
   </si>
 </sst>
 </file>
@@ -672,16 +707,16 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="97.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="93" style="1" customWidth="1"/>
+    <col min="4" max="4" width="103.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="82.28515625" style="1" customWidth="1"/>
@@ -937,17 +972,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+    <row r="10" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1223,6 +1276,7 @@
     <hyperlink ref="J7" r:id="rId6" xr:uid="{C9A7BBF9-8A7A-4696-BEFA-45444DCFFA3E}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{59465331-82BA-4E53-9EDE-9DFE5FB27E99}"/>
     <hyperlink ref="J9" r:id="rId8" xr:uid="{90DEA886-25B7-4F55-8C5E-1C4330740EC8}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{6C722C3E-363C-49FE-805D-CCA41EE3F1F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Articulo Estado Arte/Malla Analisis Papers.xlsx
+++ b/Articulo Estado Arte/Malla Analisis Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\Articulo Estado Arte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE0376-7E6A-417C-8EE5-74C6F1E930D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A4066-AE55-4E82-8099-62FF0FF57F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{97F21C58-349C-4EBA-9621-5722AD736A3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Trabajo</t>
   </si>
@@ -348,6 +348,62 @@
   </si>
   <si>
     <t>La informacón de ruta se disponia por los dispositivos de navegacion que poseian los conductores</t>
+  </si>
+  <si>
+    <t>Ramaekers, K, Reumers, S and Wets, G (2013) Modelling Route Choice decisions of Car travellers using combined GPS and diary data</t>
+  </si>
+  <si>
+    <t>..\..\..\..\Dropbox\Doctorado\Tesis Doctorado\ULTIMAS TAREAS\Articulos Borrador Articulo Revista\Ramaekers et al. - 2013 - Modelling Route Choice Decisions of Car Travellers Using Combined GPS and Diary Data.pdf</t>
+  </si>
+  <si>
+    <t>El objetivo era identificar la relacion entre los patrones de actividades y las decisiones de elección de ruta desde dos enfoques: 
+(1) Investigar la relación entre el proposito del viaje y las categorias de las rutas utilizadas dinde se usa un modelo logit
+(2) Investigar la relación entre el proposito del viaje  y las desviaciones a elegir un camino más corto donde se usa un modelo tobit</t>
+  </si>
+  <si>
+    <t>Los datos fueron recolectados en 2006 y 2007 en Flandes Belgica durante un periodo de 7 dias usando una alicación La aplicación llamada PARROTS (PDA (Asistente digital personal) para el registro de actividades y el registro de la programación de viajes) desarrollada de  manera que los encuestados proporcionaban información sobre sus actividades y comportamientos en el  viaje. La aplicación recolectaba diversos  atributos  entre los que se encuentran: tipo de actividad, fecha, hora de inicio y finalización, ubicación, modo de transporte, tiempo de viaje y grupo de viaje. Además, el aplicativo utilizó Sistema de Posicionamiento Global (GPS) integrado para registrar automáticamente los datos de ubicación.
+Las carreteras se dividen en tres categorías, siguiendo la clasificación funcional de carreteras de Weijermars et al (2008), a saber, a través de carreteras (carreteras primarias), carreteras de distribución (carreteras secundarias) y carreteras de acceso (carreteras locales). La categoría de carretera primaria recorrida se define como la categoría de carretera para la cual la proporción de esta distancia de clase a la distancia total de ruta elegida es más alta.
+Se distinguen cinco tipos de propósitos de viaje: trabajo, ocio, compras, hogar y otros. La congestión se codifica como un valor ficticio para los viajes realizados durante períodos congestionados (6: 00–9: 00 y 16: 00–19: 00) y el valor cero para otros períodos del día.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Elección de la categoría de carretera principal (jerarquía de carreteras seleccionada)
+En la primera parte de este estudio, el objetivo es evaluar la relación entre la categoría de carretera primaria recorrida y el comportamiento de viaje de actividad correspondiente.
+La categoría de carretera primaria recorrida es la categoría de carretera para la cual la proporción de esta distancia de clase a la distancia total de ruta elegida es más alta. Para estimar esta relación se desarrolla un modelo logit multinomial (MNL). En este sentido, es importante señalar la diferencia entre un modelo logit multinomial (MNL) por un lado, y un modelo logit de condición (CL) por el otro. Como lo indicaron Hoffman y Duncan (1988), el MNL se enfoca en el individuo (en este estudio, el viaje individual) como la unidad de análisis y utiliza las características del individuo como variables explicativas (en la sección anterior, una descripción elaborada del viaje considerado relacionado se proporcionaron atributos). En contraste, el CL se enfoca en el conjunto de alternativas para cada individuo (es decir, el viaje) y las variables explicativas son características de esas alternativas
+[2] Desviaciones del camino más corto.
+el objetivo es evaluar la relación entre la desviación del camino más corto y el comportamiento de viaje de actividad correspondiente. En particular, se investigarán dos relaciones: la primera evaluará la desviación en términos de kilómetros (es decir, la distancia de desvío), mientras que la segunda relación expresará la desviación en términos de porcentajes de la ruta más corta. Para estimar estas relaciones, se desarrollan modelos Tobit (Tobin, 1958). Estos modelos se refieren a modelos de regresión en los que el rango de la variable dependiente está restringido de alguna manera. La restricción en este estudio es el hecho de que las distancias de desvío o los porcentajes no pueden ser negativos. El modelo estándar (Tipo I) Tobit describe la relación entre una variable dependiente no negativa (es decir, la distancia de desvío del porcentaje de desvío) y un vector de variables independientes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sugiere que se deben desarrollar procedimientos de asignación de tráfico que tengan en cuenta explícitamente una segmentación basada en actividades.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Es crucial para modelar las opciones de ruta o, en general, para los procedimientos de asignación de tráfico, la conclusión de que los patrones de actividad tienen una clara influencia en la categoría de carretera conducida principalmente.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Al analizar los resultados relacionados con la influencia del propósito del viaje, se encuentra la desviación más alta del camino más corto para los viajes de placer. Los viajes de trabajo tienen, en promedio, menos desviación del camino más corto que los viajes de placer. Los viajes de compras tienen menos desviaciones que los viajes de trabajo. Con respecto a la distancia de viaje, las estimaciones de los parámetros indican que cuanto más larga es la distancia de viaje, mayor es la desviación del camino más corto. La desviación del camino más corto es mayor para los viajes que utilizan principalmente carreteras principales. Cuando se usan principalmente caminos secundarios, la desviación es menor que cuando se usan principalmente caminos primarios.
+Los resultados en este documento también confirmaron que las variables sociodemográficas como la edad, el género, la profesión y los ingresos, y el contexto geográfico (es decir, la provincia) juegan un papel notable en las decisiones de elección de ruta.</t>
+    </r>
+  </si>
+  <si>
+    <t>El modelo solo captura el viaje en GPS, no involucra o no habla nada sobre si se tiene informacion en tiempo real</t>
   </si>
 </sst>
 </file>
@@ -755,9 +811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E56CB6E-CBDF-40E5-BC84-1BFEE2C70688}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,9 +821,9 @@
     <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="93" style="1" customWidth="1"/>
-    <col min="4" max="4" width="103.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="112.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="88.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="82.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="117.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="38.85546875" style="1" customWidth="1"/>
@@ -871,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -959,7 +1015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -989,7 +1045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -1083,7 +1139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>83</v>
       </c>
@@ -1107,17 +1163,35 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+    <row r="13" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1359,6 +1433,7 @@
     <hyperlink ref="J10" r:id="rId9" xr:uid="{6C722C3E-363C-49FE-805D-CCA41EE3F1F1}"/>
     <hyperlink ref="J11" r:id="rId10" xr:uid="{8CAB928E-FA6F-4CD8-BFD3-F1AE474FFC02}"/>
     <hyperlink ref="J12" r:id="rId11" xr:uid="{B2FF868A-E90B-4B30-831E-59A8E9A15B9A}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{457F93FE-5200-4FD5-A824-945DBC56899B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Articulo Estado Arte/Malla Analisis Papers.xlsx
+++ b/Articulo Estado Arte/Malla Analisis Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\Articulo Estado Arte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A4066-AE55-4E82-8099-62FF0FF57F10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF0555-A151-4B50-952C-EBE83FE6D802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{97F21C58-349C-4EBA-9621-5722AD736A3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
   <si>
     <t>Trabajo</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Que concluyeron acerca de la representatividad del modelo</t>
-  </si>
-  <si>
-    <t>Que preguntas dejaron abiertas?</t>
   </si>
   <si>
     <t>Enlace</t>
@@ -404,6 +401,126 @@
   </si>
   <si>
     <t>El modelo solo captura el viaje en GPS, no involucra o no habla nada sobre si se tiene informacion en tiempo real</t>
+  </si>
+  <si>
+    <t>Kuppam, A. Pendyala, R y Rahman, S. Analysis of Role of traveler attitudes and perceptions in Explaining Mode-Choice behavior (1999)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUT </t>
+  </si>
+  <si>
+    <t>Usaron Datos de Panel del Puget Sound Transportation Panel (PSTP) colectados en el estado de Washington. Los datos se empezaron a recolectar periodicamente (anual) desde 1989 y desde 1991 se tienen aprox 100 preguntas en relación a datos actitudinales de aprox 1700 hogares y los cuales se han ido aumentando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ningun cambio </t>
+  </si>
+  <si>
+    <t>Aplicaron Modelos MNL para elección de Modo. En primer lugar realizaron un analisis factorial entre grupos (Conduce solo, Comparte Carro, Bus, no motorizado- Caminata o bicicleta) donde se implenetaron tres modelos:
+Mod 1 BD: Incluye solo variables demograficas y socioeconomicas
+Mod 2 BA: Incluye solo factores actitudinales
+Mod 3 BDA: Incluye solo factores demograficos y actitudinales
+Mod 4 DB: Incluye solo las variables demograficas del modelo 3.</t>
+  </si>
+  <si>
+    <t>No lo hace, no se utiliza información en tiempo real ni datos de GPS</t>
+  </si>
+  <si>
+    <t>En investigaciones futuras, los autores pretenden especificar y estimar modelos de ecuaciones simultáneas que permitan el tratamiento endógeno de variables de actitud y la prueba de vínculos causales alternativos entre actitudes y conductas de viaje.</t>
+  </si>
+  <si>
+    <t>Que preguntas dejaron abiertas? O investigacions futuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se encontró que un modelo que incluía variables de actitud exclusivamente se desempeñó mejor que un modelo que incluía variables exclusivamente demográficas. Del mismo modo, un modelo que incluye variables demográficas y de actitud tuvo el mejor rendimiento.
+Las pruebas de razón de probabilidad mostraron que tanto las variables demográficas como los factores de actitud son importantes y significativos para explicar el comportamiento de elección de modo. Sin embargo, se encontró que la estadística que prueba la importancia de los factores de actitud es casi el doble de la estadística que prueba la importancia de las variables demográficas. Esto parece indicar que los factores de actitud son extremadamente importantes para explicar el comportamiento de elección de modo y que su omisión de los modelos de elección de modo puede ser más grave que la omisión de variables demográficas.
+Una limitación de este artículo desde una perspectiva metodológica es la suposición clave de que las actitudes y percepciones pueden tratarse como exógenas al comportamiento de elección de modo. Sin embargo, es probable que las actitudes y percepciones de las personas estén determinadas por sus elecciones y experiencias de viaje. Entonces, las variables que representan actitudes y percepciones deben tratarse como endógenas al comportamiento de elección de modo.</t>
+  </si>
+  <si>
+    <t>Este artículo demuestra la aplicación de técnicas de análisis factorial para reducir un gran número de variables de actitud y preferencia en unos pocos factores que se prestan para su inclusión en los modelos tradicionales de elección de modo. Después del análisis factorial, se estimaron cuatro modelos diferentes de elección de modo para evaluar las contribuciones relativas de las variables demográficas y de actitud al explicar el comportamiento de elección de modo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rieser-Schüssler, N., &amp; Axhausen, K. W. (2012). Investigating the Influence of Environmentalism and Variety Seeking on Mode Choice. Transportation Research Record, 2322(1), 31–41. https://doi.org/10.3141/2322-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigar cómo las actitudes de los viajeros hacia el medio ambiente y la búsqueda de variedades afectan la elección del modo de transporte </t>
+  </si>
+  <si>
+    <t>Utilizaron encuestas sobre caracteristicas de los hogares junto con trazas GPS y tres cusetionarios psicometricos de escala sobre propension al riesgo, busqueda de variedad y ambientalismo. Se enviaron 2000 encuestas en dos etapas, verano e invierno de 2010. El lugar fue en Zurich, Suiza. Solo se procesaron 222 encuestas.</t>
+  </si>
+  <si>
+    <t>El documento continúa la línea de investigación sobre modelos de elección de modo variable latente, pero le agrega un nuevo aspecto. Además de la influencia del ambientalismo, se investiga el efecto de la búsqueda de variedades en la elección del modo.</t>
+  </si>
+  <si>
+    <t>En las escalas psicometrica aplicaron alfa de chronbach y analisis exploratorio de datos  ACP y Varimax.  Encontrando tres factores tanto en el analisis de ambientalismo como en la busqueda de variedad.
+Se crea un modelo basico de variables latentes MNL testeado con rango de nivel de servicios(Tiempo de viaje, tiempos de acceso y egreso del tte publico, tiempo de viaje enl sistema de ttte publico, tiempo de espera en paradas), atributos de alternativas, atributos de situaciones y caracteristicas socieconomicas.</t>
+  </si>
+  <si>
+    <t>No se hace referencia en el texto a si recibieron o no ingfortmacion en ruta</t>
+  </si>
+  <si>
+    <t>Los resultados de este estudio indican que el uso de un automóvil es preferido por personas con una alta preferencia por horarios diarios repetitivos, mientras que los buscadores de variedades tienen más probabilidades de elegir el transporte público. La interacción con el horizonte de planificación es particularmente interesante porque los horizontes de planificación más cortos están relacionados con menores probabilidades de transporte público, lo que lleva a la conclusión de que el horizonte de planificación de un viaje y el deseo de variedad en el horario diario son fenómenos diferentes que deben modelarse por separado , aunque a primera vista parecen estar vinculados.</t>
+  </si>
+  <si>
+    <t>En el trabajo futuro, se debe realizar un análisis más profundo de esta relación. Sin embargo, este análisis requerirá un conjunto de datos más rico con más observaciones y atributos adicionales. Actualmente se está realizando una encuesta para dicho conjunto de datos en el Instituto de Planificación y Sistemas de Transporte (IVT). La medición de las actitudes hacia el medio ambiente, la búsqueda de variedades y el riesgo se está combinando con un diario de GPS de 1 semana basado en una persona. Debido a su riqueza y los tamaños de muestra más altos, este conjunto de datos no solo permitirá a los investigadores estimar combinaciones de diferentes variables latentes y probar esos modelos con respecto a sus capacidades de pronóstico, sino que también brindará la oportunidad de comparar el deseo de variedad buscando con variaciones reales en los patrones diarios.</t>
+  </si>
+  <si>
+    <t>Papinski, D. Scott, D. Doherty, S. (2009) Exploring the route choice decision-making process: A comparison of planned and observed routes obtained using person-based GPS</t>
+  </si>
+  <si>
+    <t>presenta un enfoque  para capturar datos de elección de ruta planificados y observados. Se realizo con una muestra de 31 individuos de Ontario, Canadá, el estudio también identifica cualquier desviación espacio-temporal entre la ruta observada y la planificada. No solo se les pidió a los participantes que describieran su ruta planificada, sino también que identificaran cómo se concretó la ruta planificada.</t>
+  </si>
+  <si>
+    <t>El análisis presentado se basa en un estudio de 31 individuos de Kitchener-Waterloo, Ontario, Canadá, recolectado de junio a septiembre de 2007. Los participantes fueron reclutados utilizando una muestra de bola de nieve. Este método de muestreo se basa en referencias de sujetos iniciales para generar sujetos adicionales. Este documento examina específicamente 21 viajes basados en vehículos que representan el viaje de casa a trabajo. La recopilación de datos consta de tres partes: pre entrevista, observaciones utilizando GPS  hardware de soporte, y una post entrevista.</t>
+  </si>
+  <si>
+    <t>Se pregunto a los encuestados sobre su socioeconómica y demográfica básica, el procedimiento de recolección de información se realiza en tres momentos:
+[1] Durante la entrevista preliminar, se les pide a los encuestados que describan lo que han planeado en términos de actividades y viajes durante los siguientes 2 días. El trabajo es una actividad planificada y la ruta también se percibe como fija y planificada de antemano. El viaje de casa a trabajo es el foco de la investigación debido a su relativa fijación espacio-temporal. Utilizando un enfoque convencional de lápiz y papel, los sujetos registraron sus eventos planificados. Se utiliza ArcMap de ESRI como una interfaz para registrar digitalmente los desplazamientos planificados del hogar al trabajo de los sujetos. Toda la ruta se exporta al formato de archivo de forma estándar. Esto es seguido por una serie de preguntas integrales de encuesta de elección de ruta diseñadas para explorar las razones para seleccionar la ruta planificada y se  pide a los encuestados que clasifiquen un conjunto de atributos de elección de ruta predeterminados basados en la red. Estos atributos incluyen: tiempo, distancia, señales de alto, luces de freno, giros a la izquierda, giros a la derecha, giros (en general), congestión, estética, direccionamiento de ruta, caminos rectos / lineales, caminos curvilíneos, confiabilidad (tiempo de conducción constante), caminos locales , carreteras principales y autopistas / autopistas. Se genera un índice de clasificación en función de la clasificación de los atributos de elección de ruta de los participantes. 
+[2] Se realiza el viaje monitoreando la ruta por GPS
+[3] Después de que el viaje diario se haya verificado por completo, se exploran un conjunto de preguntas de encuesta de elección de ruta adicionales durante la entrevista posterior. Esta entrevista aborda tres componentes: cambios de ruta, rutas alternativas y atributos de elección de ruta. Los cambios de ruta cuentan cualquier desviación entre la ruta observada y la ruta planificada. Se exploran rutas alternativas para ver qué grado de flexibilidad de ruta enfrenta el individuo. Finalmente, las razones para tomar la ruta también se revisan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este estudio separa cómo planificamos y ejecutamos nuestras decisiones de elección de ruta.
+Los resultados de este estudio indican dos tipos separados de planificadores de ruta. El primer grupo planifica rutas del hogar al trabajo de forma secuencial. Es decir, planifican su ruta en orden desde el origen (hogar) hasta el destino de la actividad (trabajo). El estudio también identifica a los principales planificadores de rutas que planifican su ruta alrededor de las principales arterias de transporte.
+</t>
+  </si>
+  <si>
+    <t>El estudio solo incorpora informacion de GPS para obtener la ruta de viaje y realiza una comparacion entre la ruta planeada y la realizada y luego si hubo cambio en la decision, explora cuales fueron las razones de dichos cambios</t>
+  </si>
+  <si>
+    <t>No realizaron modelación, solo un analisis comparativo entre la planeacion y la ejecución.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis comparativo </t>
+  </si>
+  <si>
+    <t>El objetivo de este trabajo es la modelización de la adquisición de la información y la subsecuente elección de ruta. Se modela explícitamente costo cognitivo mediante la adaptación del modelo de la cognición dirigida (DC) de eleccion de ruta. . El modelo DC  muestra un mejor desempeño que los modelos perfectamente racionales en los experimentos que implican contexto de decisión compleja y costosa adquisición de información. El modelo DC es un tipo de modelo de racionalidad limitada, que en general describe a un tomador de decisiones que elige una solución satisfactoria en lugar de óptima debido a limitaciones en la información disponible, la capacidad cognitiva y el tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos sinteticos - simulados </t>
+  </si>
+  <si>
+    <t>La principal contribución de este artículo es una adaptación y extensión del modelo DC al problema de elección de ruta. Proponen un modelo estimado en observaciones de elección de ruta donde la adquisición de información es una parte integral pero latente. En comparación con el modelo DC original, se modela la elección de la adquisición de información como estocástica en lugar de determinista; el modelo se estima en elecciones de ruta finales en lugar de procesos intermedios de adquisición de información que generalmente no son observables en los datos de RP de elección de ruta.</t>
+  </si>
+  <si>
+    <t>DC -  modelo de cognición dirigida 
+PS- Path size Logit</t>
+  </si>
+  <si>
+    <t>El modelo de membresía de  clase Logit se aplica a dos clases: no buscar y buscar por ruta. Las variables explicativas en la función de membresía incluyen el beneficio neto de buscar una ruta, así como la familiaridad con la red y la flexibilidad de la hora de llegada del viaje. El beneficio neto de la búsqueda se define como la diferencia entre la utilidad máxima esperada antes y después de la búsqueda. Se supone que un viajero que busca por ruta considera más a fondo si continúa la búsqueda en la segunda ruta. Se propone un modelo de Logit de Stop and go para tales decisiones y considera la compensación entre el beneficio neto de buscar una ruta más y el costo cognitivo.</t>
+  </si>
+  <si>
+    <t>Se genera un modelo Clases de búsqueda de información donde hay dos clases de búsqueda
+1. Sin búsqueda.
+2. Búsqueda por ruta: La secuencia de búsqueda ordenada es 1, 2, usando  Google Maps donde sugiere primero la ruta 1, y luego el viajero puede elegir arrastrar (es decir, mover un punto en la ruta 1 para que pase el puente de la ruta 2) y obtener la ruta 2, dado que la ruta 2 es la ruta habitual del viajero (observable desde una encuesta) pero no se muestra en Google Maps. Una ruta buscada tiene una media igual al tiempo de viaje real y una desviación estándar cero. La ruta 3 tiene un tiempo de viaje fijo, por lo que no hay necesidad de buscar. Suponemos que los viajeros en esta clase no son conscientes de la correlación entre las rutas 1 y 2, es decir, el tiempo de viaje real en la ruta 1 no le dice nada a los viajeros sobre eso en la ruta 2.
+Sin embargo, el número de clases latentes es tres en lugar de dos. Los viajeros que eligen buscar por ruta pueden detener la búsqueda en la etapa 2 o 3, lo que significa que buscan la ruta 1 o ambas rutas 1 y 2. Se aplica un modelo Logit de detención y avance para las operaciones de búsqueda. Específicamente en cada etapa de búsqueda t, se utiliza un Logit binario con dos alternativas: ir (buscar) o detenerse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El modelo es consistente con una topología de red general y potencialmente se puede estimar a partir de datos de preferencias reveladas.
+Los resultados de la predicción muestran que un menor costo cognitivo fomenta la búsqueda de información en rutas arriesgadas y rápidas y, por lo tanto, una mayor participación en esas rutas. Como resultado, el tiempo de viaje promedio esperado disminuye y la variabilidad aumenta. Los modelos sin información y con información completa son casos extremos del modelo de costo cognitivo más general en algunos casos, pero en general no lo son. Por lo tanto, la creciente facilidad de adquisición de información no garantiza necesariamente un modelo de información completa. 
+</t>
+  </si>
+  <si>
+    <t>Gao, S. Frejinger, E. Ben-Akiva, M. (2011) Cognitive cost in route choice with real-time information: An exploratory analysis</t>
   </si>
 </sst>
 </file>
@@ -443,12 +560,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -479,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,6 +615,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,8 +938,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +949,10 @@
     <col min="3" max="3" width="93" style="1" customWidth="1"/>
     <col min="4" max="4" width="112.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="88.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="116.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="82.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="117.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="90" style="1" customWidth="1"/>
     <col min="10" max="10" width="48.85546875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -857,15 +983,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -876,15 +1002,15 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -894,350 +1020,418 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="J13" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+    <row r="16" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+    <row r="17" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>

--- a/Articulo Estado Arte/Malla Analisis Papers.xlsx
+++ b/Articulo Estado Arte/Malla Analisis Papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20350"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\Articulo Estado Arte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBF0555-A151-4B50-952C-EBE83FE6D802}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24973E6A-96E2-4A05-937A-0526B754D5B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8685" xr2:uid="{97F21C58-349C-4EBA-9621-5722AD736A3E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>Trabajo</t>
   </si>
@@ -521,6 +521,54 @@
   </si>
   <si>
     <t>Gao, S. Frejinger, E. Ben-Akiva, M. (2011) Cognitive cost in route choice with real-time information: An exploratory analysis</t>
+  </si>
+  <si>
+    <t>El objetivo principal de esta investigación fue combinar datos de una encuesta de viajes a gran escala basada en GPS y bases de datos de redes de carreteras basadas en el sistema de información geográfica para desarrollar modelos para la elección de rutas. Los datos de las transmisiones GPS para 1.913 viajes se utilizaron en este análisis. Se construyeron tres modelos que consideraron tamaños de conjuntos de cinco, 10 y 15 alternativas. Los resultados de la estimación indicaron efectos estadísticamente significativos e intuitivamente razonables del tiempo de viaje de flujo libre, giros a la izquierda, giros a la derecha, intersecciones y circuitos en el atractivo de las diferentes alternativas de ruta. Además, se descubrió que la sensibilidad a estos factores varía según las características del viaje (propósito, hora del día y día de la semana) y del viajero (sexo, edad y duración de la estadía en el hogar actual).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhakar \&amp; Srinivasan (2014) (Route choice modeling using GPS-based travel surveys) </t>
+  </si>
+  <si>
+    <t>Este estudio adopta el modelo PSL con la formulación del tamaño de ruta original propuesta por Ben-Akiva y Bierlaire (18). Se ha demostrado que esta formulación tiene un buen rendimiento empírico (10). Las estimaciones del modelo se realizaron para un gran conjunto de datos GPS que contiene 1.913 observaciones. Además de los diversos atributos de ruta, los atributos de viaje y viajero también se incluyeron en las funciones de utilidad. Los modelos se estimaron mediante el uso de tres tamaños de conjuntos de elección (cinco, 10 y 15 alternativas). Las evaluaciones predictivas se realizaron mediante el uso de una muestra reservada.</t>
+  </si>
+  <si>
+    <t>Se generaron varios atributos para la ruta elegida y para cada una de las alternativas en el conjunto de opciones. Los atributos incluyen distancia total, tiempo total, número de intersecciones, número de vueltas (izquierda y derecha), tramo más largo por distancia y tiempo, proporción de cada tipo de instalación (distancia y tiempo), tramo más largo por cada tipo de instalación (distancia y tiempo ), velocidad máxima, velocidad media y circuito. Las carreteras de la red se clasificaron en tres tipos de instalaciones: autopistas, arterias y carreteras locales. Se calculó la distancia total y el tiempo en cada tipo de carretera, y luego se determinaron las proporciones correspondientes. También se estimó la mayor duración del viaje continuo (distancia y tiempo) en cada tipo de carretera. El circuito se utilizó como una medida de la desviación de la distancia de la ruta desde la distancia en línea recta sin red entre el origen y el destino.</t>
+  </si>
+  <si>
+    <t>Los resultados de la estimación indicaron los efectos esperados. Específicamente, se encontró que el tiempo de viaje de flujo libre, el número de giros a la izquierda, el número de giros a la derecha, el número de intersecciones y la circunferencia se asociaron negativamente con el atractivo de una ruta. Los viajeros indicaron una preferencia por rutas con mayores proporciones de tiempo de viaje en las calles locales. Este efecto puede atribuirse a la gran proporción de carreteras locales en el conjunto de datos. El efecto del atributo de tamaño de ruta fue consistente con el encontrado en otros estudios descritos en la literatura. Específicamente, los viajeros estaban más inclinados a elegir una ruta que fuera menos similar a las otras alternativas en el conjunto de opciones. Además, se observó un efecto de congestión durante el período pico, ya que los viajeros optaron por viajar en una ruta con un tiempo de viaje de flujo libre más alto. Se estimó que la sensibilidad al tiempo de viaje era la menor para los viajes de regreso a casa. Este resultado indica que los viajeros están más preocupados por el tiempo de viaje cuando viajan a un lugar que no sea su hogar.</t>
+  </si>
+  <si>
+    <t>Fujii, S and Kitamura, R (2000) Anticipated Travel Time, Information
+Acquisition, and Actual Experience
+Hanshin Expressway Route Closure, Osaka-Sakai, Japan</t>
+  </si>
+  <si>
+    <t>Se propone un modelo conceptual de la formación de un tiempo de viaje anticipado mediante la adquisición de información y la experiencia de conducción inicial.Se realizó una prueba de la hipótesis de dominio de la información (es decir, a medida que los conductores adquieren más información sobre el tiempo de viaje, pueden predecir el tiempo de viaje con mayor precisión y referirse menos a los tiempos de viaje anticipados utilizados en el pasado para anticipar los tiempos de viaje) y la hipótesis de dominio de la experiencia ( es decir, las influencias de la información que no proviene de la experiencia de manejo en el tiempo de viaje anticipado son más débiles con la experiencia de manejo real que sin la experiencia real).
+Aunque la información de boca en boca no tiene impactos consistentes con estas dos hipótesis, los resultados con otros tipos de información respaldan ambas hipótesis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se recogieron datos del día a día de los tiempos de viaje previstos durante el cierre de la Ruta Sakai de la Autopista Hanshin, una carretera de peaje que conecta los distritos comerciales centrales de Osaka y Sakai, que se encuentra aproximadamente a 20 km al sur del cierre de la ruta de Osaka. </t>
+  </si>
+  <si>
+    <t>El estudio difiere de los estudios anteriores en lo siguiente:
+1,  que investiga la precisión de la predicción o previsibilidad del tiempo de viaje que podría basarse en la habilidad cognitiva del conductor para la predicción y que puede representarse por el efecto de información en el modelo propuesto. Este estudio, además, propone las dos hipótesis con respecto a las relaciones teóricas entre la previsibilidad (adquisición de información y experiencia real) y las prueba. Por lo tanto, este marco conceptual puede usarse para mejorar el conocimiento sobre la previsibilidad del tiempo de viaje.
+2, En Este estudio puede distinguirse de los estudios anteriores en que investiga la anticipación de los conductores en condiciones de tráfico desconocidas.
+Estudios anteriores investigaron la anticipación del tiempo de viaje cuando los conductores usan una o pocas rutas repetidamente (1, 8–14). Estos estudios serían útiles para comprender la anticipación del tiempo de viaje de, por ejemplo, los conductores que viajan todos los días usando una o pocas rutas Sin embargo, los conductores reales cuya capacidad cognitiva está sustancialmente limitada y que pueden haber desarrollado el hábito de elegir rutas particulares (16, 17) no deben estar familiarizados con la mayoría de las rutas y las condiciones del tráfico en las redes de tráfico reales a gran escala.
+En consecuencia, la investigación sobre la anticipación del tiempo de viaje bajo desconocimiento es indispensable para comprender la toma de decisiones y los comportamientos de los conductores en redes reales a gran escala
+3, algunos estudios han investigado la anticipación del tiempo de viaje cuando la información sobre el tiempo de viaje se proporciona mediante señales de mensajes variables en el camino o sistemas avanzados de información al viajero (8, 12–14), pero no han investigado la anticipación cuando la información se adquiere a través de otros medios (como medios de comunicación, servicios telefónicos o de boca en boca).</t>
+  </si>
+  <si>
+    <t>Si un conductor adquiere información sobre el tiempo de viaje de una ruta de fuentes tales como servicios de información telefónica, informes de tráfico de radio o experiencias de conducción reales en la ruta, el conductor debe poder predecir el tiempo de viaje con mayor precisión que un conductor sin dicha información. En consecuencia, el efecto de la información se intensificaría con la cantidad de información que se ha adquirido. Además, si el conductor es capaz de anticipar bien los tiempos de viaje basándose en la información que ha adquirido, no siempre será necesario referirse a los tiempos de viaje anticipados del pasado. Con estas conjeturas en mente, se plantea la siguiente hipótesis:
+Hipótesis de dominio de la información: los efectos de la información se hacen más grandes a medida que el conductor adquiere más información sobre el tiempo de viaje; Estos efectos dominan los efectos de dependencia del estado.
+La información proporcionada por los medios de comunicación (por ejemplo, servicios de televisión, radio o teléfono) es, según la tecnología actual, genérica y no específica para cada conductor o cada viaje (este tipo de información se denomina información genérica sobre el tiempo de viaje), mientras que la experiencia proporciona información específica para el conductor (es decir, el tiempo real de viaje de puerta a puerta para el viaje del conductor). Por lo tanto, se espera que la experiencia de manejo, especialmente la inicial, afecte sustancialmente el tiempo de viaje anticipado y tienda a negar las influencias de la información genérica. Por lo tanto, se plantea la siguiente :
+Hipótesis de dominio de la experiencia: las influencias de la información genérica sobre el tiempo de viaje previsto son más débiles con la experiencia de conducción real que sin ella.</t>
+  </si>
+  <si>
+    <t>a pesar del pequeño tamaño de la muestra, los resultados estadísticos de este estudio brindan apoyo empírico a la hipótesis de dominio de la información, que establece que cuando un conductor adquiere información sobre el estado del tráfico, podrá predecir el tiempo de viaje de manera más precisa con menos confianza en los tiempos de viaje anticipados que el conductor tuvo en el pasado. Sin embargo, los resultados indican que la información de boca en boca tiene efectos opuestos a los implicados por la hipótesis de dominio de la información (es decir, la dependencia del estado se fortalece y el efecto de la información se debilita).
+El segundo día, la información de boca en boca parecía contribuir más a la predicción del tiempo de viaje por parte del conductor. Una explicación plausible de estos resultados es que la información obtenida de boca en boca, cuando todos ignoran las condiciones del tráfico, no garantiza que proporcione información precisa, mientras que información relativamente más precisa puede intercambiarse de boca en boca después de que se haya experimentado algo de experiencia de manejo. ganado. La hipótesis sería válida solo si la información que se adquiere tiene cierto nivel de precisión.
+Las estimaciones de sd1 y pp1 sugieren que, al anticipar el tiempo de viaje, un conductor ignorante (es decir, un conductor sin ninguna información ni experiencia de conducción) no puede evitar recurrir a tiempos de viaje previstos, que obviamente serían diferentes del tiempo de viaje real. Este resultado respalda los resultados de la simulación de Nakayama et al. (7) que un conductor tiene creencias específicas de la ruta que se formaron por una experiencia de conducción limitada. Con controladores ignorantes, el flujo de red puede converger en un "equilibrio engañoso" (7), lo que puede ser sustancialmente ineficiente.
+El dominio hipotético de la información es una condición necesaria para que esta estrategia de provisión de información funcione. Sin embargo, la hipótesis del dominio de la experiencia implica que puede no ser fácil salir del equilibrio engañoso al proporcionar información sobre el tiempo de viaje. Esto se debe a que el conductor ha sido engañado por la experiencia de conducción real, y la hipótesis implica que la experiencia real disminuye las influencias de la información adquirida al anticipar el tiempo de viaje.
+El dominio hipotético de la información es una condición necesaria para que esta estrategia de provisión de información funcione. Sin embargo, la hipótesis del dominio de la experiencia implica que puede no ser fácil salir del equilibrio engañoso al proporcionar información sobre el tiempo de viaje. Esto se debe a que el conductor ha sido engañado por la experiencia de conducción real, y la hipótesis implica que la experiencia real disminuye las influencias de la información adquirida al anticipar el tiempo de viaje.</t>
   </si>
 </sst>
 </file>
@@ -938,8 +986,8 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1435,27 +1483,49 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
